--- a/HW_10/Measurement.xlsx
+++ b/HW_10/Measurement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unreal Engine\Projects\UE_Learning\HW_10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028FFBF5-C370-4CA4-A3E2-8FA1040C66B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F5890B-E432-49D1-9CFA-2C087CC7B7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2736" yWindow="276" windowWidth="17280" windowHeight="7008" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
@@ -54,9 +54,6 @@
     <t>Nothing</t>
   </si>
   <si>
-    <t>Desabled Volumetri Fog, FFT Convolution Bloom. Made all ligths static, except Light Source</t>
-  </si>
-  <si>
     <t>178,28 ms</t>
   </si>
   <si>
@@ -72,10 +69,13 @@
     <t>Applied custom LOD for 15 items</t>
   </si>
   <si>
-    <t>Created and applied cluster of mesges</t>
-  </si>
-  <si>
     <t>Frame, ms</t>
+  </si>
+  <si>
+    <t>Created and applied cluster of merges</t>
+  </si>
+  <si>
+    <t>Disabled Volumetric Fog, FFT Convolution Bloom. Made all ligths static, except Light Source</t>
   </si>
 </sst>
 </file>
@@ -807,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D3:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -863,13 +863,13 @@
     </row>
     <row r="5" spans="4:9" ht="18" x14ac:dyDescent="0.3">
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E5" s="4">
         <v>226.21</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" s="4">
         <v>32.32</v>
@@ -883,7 +883,7 @@
     </row>
     <row r="6" spans="4:9" ht="18" x14ac:dyDescent="0.3">
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="3">
         <v>7.59</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="7" spans="4:9" ht="18" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="4">
         <v>13.64</v>
@@ -923,7 +923,7 @@
     </row>
     <row r="8" spans="4:9" ht="18" x14ac:dyDescent="0.3">
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="3">
         <v>225.92</v>
@@ -949,10 +949,10 @@
         <v>8</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>15</v>
